--- a/Original/Files/计算比例.xlsx
+++ b/Original/Files/计算比例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <r>
       <rPr>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>预测低点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调百分比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -583,12 +587,14 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="4" width="9.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -609,35 +615,37 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="7">
-        <v>30.9</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="C2" s="8">
-        <v>45.97</v>
+        <v>11.3</v>
       </c>
       <c r="D2" s="8">
-        <v>39.39</v>
+        <v>10.55</v>
       </c>
       <c r="E2" s="9">
         <f>(1-C5/2)*C2</f>
-        <v>34.760163430420711</v>
+        <v>10.702935420743639</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="7"/>
       <c r="C3" s="8">
         <f>C2-B2</f>
-        <v>15.07</v>
+        <v>1.08</v>
       </c>
       <c r="D3" s="8">
         <f>C2-D2</f>
-        <v>6.5799999999999983</v>
+        <v>0.75</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="7"/>
+      <c r="B4" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -646,18 +654,21 @@
       </c>
       <c r="E4" s="9">
         <f>(B2+C2)/2</f>
-        <v>38.435000000000002</v>
+        <v>10.760000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="7"/>
+      <c r="B5" s="7">
+        <f>D3/C3</f>
+        <v>0.69444444444444442</v>
+      </c>
       <c r="C5" s="4">
         <f>C3/B2</f>
-        <v>0.48770226537216832</v>
+        <v>0.10567514677103718</v>
       </c>
       <c r="D5" s="5">
         <f>D3/C2</f>
-        <v>0.14313682836632582</v>
+        <v>6.6371681415929196E-2</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>4</v>
@@ -669,7 +680,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="5">
         <f>(E2+E4)/2</f>
-        <v>36.597581715210353</v>
+        <v>10.73146771037182</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/Original/Files/计算比例.xlsx
+++ b/Original/Files/计算比例.xlsx
@@ -243,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -261,6 +261,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -584,15 +585,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E20" sqref="A14:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="4" width="9.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
@@ -766,6 +767,9 @@
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
